--- a/assets/data/relevant_companies.xlsx
+++ b/assets/data/relevant_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,5765 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DESI BEATZ UK LTD</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>16472669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>02:27:10</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>93290</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LUKE DELIVERS LTD</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SC849700</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>02:27:10</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>53202</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HAVENTRA LIMITED</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SC849701</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>02:27:10</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>47910</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CHILDE LIMITED</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NI729760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>02:27:10</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>47910</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>VALANTIX LTD</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>16472671</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>02:27:10</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>62012,70100,77400</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>LIVANEST HOMES LTD</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>16472675</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>02:27:10</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>68209</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>VEGGIE FRUITY LTD</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>16472673</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>02:27:10</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>47210</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>IHSAAN PERFORMANCE LTD</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>16472683</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>02:27:10</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>47910</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RDS BUILDERS LTD</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>16472678</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>02:27:10</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>41201,41202</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>WOK LIN TAKEAWAY LTD</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>16472670</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>02:27:10</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>56103</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ORBIY LIMITED</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>16472677</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>02:27:10</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>47910,49390,77110</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>STEADY CLOTHING LTD</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>16472680</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>02:27:10</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>47710,47910</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TOTAL SPARK CLEANING LTD</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>16472684</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>02:27:10</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>81210</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BUYLIO LTD</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>16472681</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>02:27:10</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>47910</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ALL ABOUT BEAUTY &amp; AESTHETICS STUDIO LIMITED</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>16472676</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>02:27:10</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>96020</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BRISTOL SAFETY DEPOSIT LIMITED</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>16472679</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>02:27:10</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>47789</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AWAKENTRAILS COLLECTIVE LTD</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>16472674</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>02:27:10</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>82302,86900,96040</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>KA ENTERPRISES LTD</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>16472672</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>02:27:10</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>47910</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>REST STAY TRAVEL LTD</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>16472682</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>02:27:10</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>55100</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HARRY OSBORNE INVESTMENTS LTD</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>16470121</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>02:29:00</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>68209</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SANDHU VENTURE CAPITAL HOLDINGS LTD</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>16470080</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>02:29:00</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Ventures</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>70100</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>RK EQUITY HOLDINGS LTD</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>16470369</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>02:29:01</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>99999</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>DYNASTY ESTATE INVESTMENTS LIMITED</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>NI729747</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>02:29:00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>68209</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TY OG VENTURES LIMITED</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>16472471</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>02:29:00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Ventures</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>47710,59200,90030,96040</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>THEE LY2 LLP</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>OC456848</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>02:29:01</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>LLP</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>INVESTMENT PACIFIC GROUP LIMITED</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>16471423</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>02:29:02</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>68320</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>COGNATIO RESIDENTIAL PROPERTY INVESTMENTS LIMITED</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>16471324</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>02:29:01</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>68100</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AURELIUS EXCLUSIVE INVESTMENT PARTNERS LTD</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>16470609</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>02:29:01</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>64301</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>WSR INVESTMENT LIMITED</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>16470629</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>02:29:01</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>68209</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MASMO CAPITAL LTD</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>16470948</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>02:29:01</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Capital</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>68209</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>VEPTO INVESTMENTS LIMITED</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>16470714</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>02:29:01</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>68209</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>D&amp;N PARCEL PARTNERS LTD</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>16470858</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>02:29:01</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Partners</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>53100</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>HYO LLP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>OC456843</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>02:28:58</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>LLP</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SCOTT PROPERTY INVESTMENTS LTD</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>16470696</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>02:28:58</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>68209</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ORBIT&amp;INSIGHT LTD</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>16470719</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>02:28:58</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>70100,70221,70229,73200</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Financial management (of companies and enterprises)</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Treasury, capital-raising and internal financial services arm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ECI 12 SPECIAL PURPOSE GP LLP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>OC456856</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>02:28:58</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>LLP</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>SCOTT GROUP CAPITAL LIMITED</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>16472284</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>02:28:58</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Capital</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>68320</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>HOMELY HOUSING INVESTMENTS LTD</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>16472376</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>02:28:58</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>68209</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>VRG CAPITAL LIMITED</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>16472513</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>02:28:58</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Capital</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>77400</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>KIRKHAMASHTON PARTNERS LTD</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>16471275</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>02:29:00</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Partners</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>68100</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>UPLIFT VENTURES CIC</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>16471082</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>02:29:00</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Ventures</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>56290,58290,85590</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>NORMANV GLOBAL LIMITED</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>16470862</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>02:29:00</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>70221</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Financial management (of companies and enterprises)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Treasury, capital-raising and internal financial services arm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>DJS HOLDINGS LLP</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>OC456849</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>02:28:58</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>LLP</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>FORTESCUE PROPERTY INVESTMENT LIMITED</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>16471465</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>02:28:58</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>68100,68209</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>NICOLAOU INVESTMENT LIMITED</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>16472355</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>02:28:59</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>68100,68209,68320</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>AELIA PROPERTY INVESTMENTS LTD</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>16471374</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>02:29:04</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>68100,68209,68320</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>CI AM HOLDINGS LLP</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>OC456850</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>02:29:05</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>LLP</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>LOTTIE CAPITAL LIMITED</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>16471515</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>02:29:05</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Capital</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>68209</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ZAIN HUT INVESTMENT 2 LTD</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>16470913</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>02:29:04</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>56103</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>WHIXLEY PARTNERS LIMITED</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>16470730</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>02:29:04</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Partners</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>62020,70229,74909</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>IPSA INTERNATIONAL LLP</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>OC456847</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>02:29:04</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>LLP</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>RUSSELLERS INVESTMENTS LIMITED</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>16471132</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>02:29:04</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>MAPLE 2 BXT GP LIMITED</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>16471726</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>02:29:05</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>41100</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>EURASIA CAPITAL PARTNERS LTD</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>16471858</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>02:29:05</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Capital</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>68100</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>GRANVILLE COURT INVESTMENTS LLP</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>OC456855</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>02:29:05</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>LLP</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>CORE LEGACY CAPITAL LTD</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>16471828</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>02:29:06</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Capital</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>41100,68201,68320,98000</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>TA FINTECH LIMITED</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>16471947</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>02:29:03</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>70221</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Financial management (of companies and enterprises)</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Treasury, capital-raising and internal financial services arm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SSC PARTNERS LTD</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>16471964</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>02:29:03</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Partners</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>64303</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>NAVIG8 SOLUTIONS LTD</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>NI729752</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>02:29:03</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>70221</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Financial management (of companies and enterprises)</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Treasury, capital-raising and internal financial services arm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>TAYLOR REALTY PARTNERS LIMITED</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>16472087</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>02:29:03</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Partners</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>68100,68209,68320</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>HIGH POINT INVESTMENT HOLDINGS LIMITED</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>16472126</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>02:29:03</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>47640</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ROSEWOOD INVESTMENTS LIMITED</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>OE033957</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>registered</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>02:29:03</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>GREENWOOD WEALTH LIMITED</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>16471528</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>02:29:02</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>70221</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Financial management (of companies and enterprises)</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Treasury, capital-raising and internal financial services arm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>MT.INVESTMENT GROUP LTD</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>16471877</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>02:29:02</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>46499,46900,64301,64999</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>EJT LIVE LLP</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>OC456857</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>02:29:02</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>LLP</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>GDPARTNERZ LIMITED</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>16470392</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>02:29:04</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>49390,70221,70229</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Financial management (of companies and enterprises)</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Treasury, capital-raising and internal financial services arm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>FITCHETT LEGACY HOLDINGS LTD</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>16470592</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>02:29:04</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>64205</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Activities of financial services holding companies</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Holding-company SPV for portfolio-company equity stakes, co-investment vehicles, master/feeder hubs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ROSEGATE TAX LLP</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>OC456844</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>02:29:04</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>LLP</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>VAELON LTD</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>16472529</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>02:29:03</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>70221</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Financial management (of companies and enterprises)</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Treasury, capital-raising and internal financial services arm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>DERWENT INVESTMENT A LIMITED</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>16472321</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>02:29:03</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>68100,68209</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>VENTURE VIBE TRAVEL LTD</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>16472638</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>02:29:03</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Ventures</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>79110</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>GRAPHITE VENTURES LTD</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>16472646</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>02:29:03</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Ventures</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>68310</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>JN STREET INVESTMENTS LTD</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>16472612</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>02:29:03</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>68310</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>RES MANAGEMENT GROUP LIMITED</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>16471297</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>02:28:52</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>64205,64209</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Activities of financial services holding companies</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Holding-company SPV for portfolio-company equity stakes, co-investment vehicles, master/feeder hubs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ARDENT IFA HOLDING COMPANY LTD</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>16472388</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>02:28:52</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>64205</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Activities of financial services holding companies</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Holding-company SPV for portfolio-company equity stakes, co-investment vehicles, master/feeder hubs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>SHAKTI PARTNERS LTD</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>16470785</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>02:28:52</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Partners</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>68100,68209</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>HONOUR INVESTMENTS LTD</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>16471307</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>02:28:52</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>68209</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>GREYSTONE CAPITAL ASSETS LTD</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>16471027</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>02:28:52</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Capital</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>68100,68320</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ION BOISTEANU &amp; ARYAN DAVANI PROPERTY INVESTMENT LTD</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>SC849591</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>02:28:52</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>68209</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>CARVUM LIMITED</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>16470706</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>02:28:52</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>64205</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Activities of financial services holding companies</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Holding-company SPV for portfolio-company equity stakes, co-investment vehicles, master/feeder hubs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>MYOLAB LLP</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>OC456851</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>02:28:53</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>LLP</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>EMS - EXECUTIVE MANAGEMENT SERVICES LLP</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>OC456852</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>02:28:53</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>LLP</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>MAZZA HOLDINGS LIMITED</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>16471415</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>02:28:53</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>64205,69202</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Activities of financial services holding companies</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Holding-company SPV for portfolio-company equity stakes, co-investment vehicles, master/feeder hubs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>CCPEPF UK ACQUISITIONS LIMITED</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>16471757</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>02:28:53</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>64205,64209</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Activities of financial services holding companies</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Holding-company SPV for portfolio-company equity stakes, co-investment vehicles, master/feeder hubs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>CR7 CAPITAL FINANCE LTD</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>16471316</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>02:28:53</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Capital</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>64303,66190,70229</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>LASH VENTURES GROUP LTD</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>16472231</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>02:28:53</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Ventures</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>47240,47250,47260</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>NATURESU INVESTMENT LTD</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>16472374</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>02:28:53</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>68100,70229,71111</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ENICH VENTURES GMBH</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>OE033960</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>registered</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>02:28:53</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Ventures</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>CHAKAR HOLDINGS LTD</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>16471637</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>02:28:53</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>64205,70221</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Activities of financial services holding companies; Financial management (of companies and enterprises)</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Holding-company SPV for portfolio-company equity stakes, co-investment vehicles, master/feeder hubs.; Treasury, capital-raising and internal financial services arm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SYNERGIES CAPITAL (HULL) LIMITED</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>16470828</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>02:28:50</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Capital</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>68100,68209</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>FOUR INVESTMENTS LTD</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>16470765</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>02:28:50</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>64203</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>GINGE INVESTMENTS LIMITED</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>16471134</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>02:28:50</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>HORIZON LEGACY INVESTMENTS LIMITED</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>16470870</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>02:28:50</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>68100</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>ARGENT CAPITAL LIMITED</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>16470176</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>02:28:50</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Capital</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>62020</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>JGY CONSULTING LTD</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>16470219</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>02:28:52</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>70221</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Financial management (of companies and enterprises)</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Treasury, capital-raising and internal financial services arm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>BOOKLUME LTD</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>16470967</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>02:28:52</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>47910,69201,70221,70229</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Financial management (of companies and enterprises)</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Treasury, capital-raising and internal financial services arm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>NGLSL INVESTMENT LIMITED</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>16471255</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>02:28:50</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>68100</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>JEHOYADA CLOCKWORK PARTNERS LIMITED</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>16470066</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>02:28:50</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Partners</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>62020</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>RNR PARTNERS LTD</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>16470052</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>02:28:50</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Partners</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>01490,46230</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ER6 HOLDINGS LLP</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>OC456845</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>02:28:51</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>LLP</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>WHITROD INVESTMENTS - PENTLANDS LTD</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>16471043</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>02:28:57</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>68100,68209,68320</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>PAXTON HOLDING &amp; PARTNERS LTD</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>16470779</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>02:28:56</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Partners</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>47910</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>CAVEAT EMPTOR INVESTMENTS LIMITED</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>16471943</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>02:28:56</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>68209</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>MAPLE 1 BXT GP LIMITED</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>16471724</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>02:28:56</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>41100</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>LAZAR N. GROUP LTD</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>SC849635</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>02:28:56</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>64205,64910</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Activities of financial services holding companies</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Holding-company SPV for portfolio-company equity stakes, co-investment vehicles, master/feeder hubs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>K&amp;K UK INVESTMENTS LTD</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>16472595</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>02:28:56</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>68100,68209</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>H&amp;H GLOBAL VENTURES LTD</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>16470322</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>02:28:57</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Ventures</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>47190</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>SFA LEGACY INVESTMENTS LTD</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>16470051</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>02:28:57</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>46900,47910</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>EQUALITYLAB LLP</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>OC456842</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>02:28:57</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>LLP</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>STUDIO JUNA LLP</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>OC456858</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>02:28:57</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>LLP</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>CEDARBRIDGE CAPITAL LTD</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>16471655</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>02:28:57</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Capital</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>UCG - UNITED CAPITAL GROUP LLP</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>NC001816</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>02:28:55</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>LLP</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>LUX DEVELOPMENT PARTNERS LIMITED</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>16472663</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>02:28:54</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Partners</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>71122</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>COMPASS INVESTMENT PROPERTY LTD</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>16471474</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>02:28:55</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>68209</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>NOWER V LLP</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>OC456859</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>02:28:55</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>LLP</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>HAUS VENTURES LTD</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>16472438</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>02:28:55</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Ventures</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>64305</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>I.M. PROPERTY INVESTMENTS LTD</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>16472175</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>02:28:55</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>68209</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>GETNOW CAPITAL LTD</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>16472183</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>02:28:55</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Capital</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>68209</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>TBS - TRUSTWISE BUSINESS SOLUTIONS LLP</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>SO308193</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>02:28:54</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>LLP</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>GASTROCARE SOLUTIONS LLP</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>OC456853</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>02:28:54</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>LLP</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>10X CAPITAL LTD</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>16472419</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>02:28:54</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Capital</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>64209</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>A&amp;S INVESTMENT SOLUTIONS LTD</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>16470396</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>02:28:55</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>64991</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>PRESTIGE PRINTWORX LLP</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>SO308192</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>02:28:56</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>LLP</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>RAIK INVESTMENTS LIMITED</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>16471014</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>02:28:56</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>64306</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>THE DECCAN FOOD VENTURES LTD</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>16471113</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>02:28:56</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Ventures</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>56103</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>LOCALTURE LLP</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>OC456846</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>02:28:56</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>LLP</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>STEELROCK CAPITAL PARTNERS LLP</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>OC456854</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>02:28:55</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>LLP</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
